--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,10 +361,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/TypeActiviteLiberale-vs</t>
   </si>
   <si>
-    <t>SituationExercice.statutPS-SSA</t>
-  </si>
-  <si>
-    <t>SituationExercice.statutPS_SSA</t>
+    <t>SituationExercice.statutPSSSA</t>
   </si>
   <si>
     <t xml:space="preserve"> Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
@@ -580,7 +577,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -2144,7 +2143,7 @@
         <v>114</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2170,10 +2169,10 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2204,7 +2203,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>70</v>
@@ -2222,7 +2221,7 @@
         <v>70</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>71</v>
@@ -2239,10 +2238,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2265,13 +2264,13 @@
         <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2322,7 +2321,7 @@
         <v>70</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>71</v>
@@ -2339,10 +2338,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2365,13 +2364,13 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2422,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>71</v>
@@ -2439,10 +2438,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2465,13 +2464,13 @@
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2522,7 +2521,7 @@
         <v>70</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>71</v>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>SituationExercice.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>SituationExercice.adresseSE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
+    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse}
 </t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve"> Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/ModeExercice-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
   </si>
   <si>
     <t>SituationExercice.numeroAM</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve"> Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/GenreActivite-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R22-GenreActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.motifFinActivite</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve"> Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/MotifFinActivite-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R25-MotifFinActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutHospitalier</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve"> Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/StatutHospitalier-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R32-StatutHospitalier?vs</t>
   </si>
   <si>
     <t>SituationExercice.sectionOrdrePharmacien</t>
@@ -340,7 +340,7 @@
     <t xml:space="preserve"> Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/SectionTableauCNOP-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R06-SectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.sousSectionOrdrePharmacien</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve"> Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/SousSectionTableauCNOP-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G05-SousSectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.typeActiviteLiberale</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve"> Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/TypeActiviteLiberale-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R24-TypeActiviteLiberale?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutPSSSA</t>
@@ -367,13 +367,13 @@
     <t xml:space="preserve"> Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/StatutProfessionnelSSA-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R34-StatutProfessionnelSSA?vs</t>
   </si>
   <si>
     <t>SituationExercice.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>SituationExercice.adresseSE</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
 </t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -734,7 +734,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
+    <t>Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rôle du professionnel au sein de la structure d’exercice. Par exemple, ** Titulaire de cabinet;** Titulaire d’officine;** Médecin scolaire;** etc.Synonyme : fonction</t>
+    <t>Rôle du professionnel au sein de la structure d’exercice. Par exemple, ** Titulaire de cabinet;** Titulaire d’officine;** Médecin scolaire;** etc.Synonyme : fonction</t>
   </si>
   <si>
     <t>preferred</t>
@@ -266,7 +266,7 @@
     <t>SituationExercice.typeRole</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
+    <t>Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeRole-vs</t>
@@ -275,7 +275,7 @@
     <t>SituationExercice.modeExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
+    <t>Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
@@ -288,7 +288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant d’activité, propre à l’Assurance Maladie. Cet identifiant est attribué lors de l’enregistrement de l’activité par l’Assurance Maladie. Un professionnel a autant de numéros AM que d’activités enregistrées à l’Assurance Maladie. Cet identifiant d’activité est utilisé pour la facturation à l’Assurance Maladie. Sa diffusion est restreinte aux entités choisies par l’Assurance Maladie.Format : 9 caractères numériques généralement identiques au n°ADELI ou pseudo ADELI du professionnel pour sa première activité.</t>
+    <t>Identifiant d’activité, propre à l’Assurance Maladie. Cet identifiant est attribué lors de l’enregistrement de l’activité par l’Assurance Maladie. Un professionnel a autant de numéros AM que d’activités enregistrées à l’Assurance Maladie. Cet identifiant d’activité est utilisé pour la facturation à l’Assurance Maladie. Sa diffusion est restreinte aux entités choisies par l’Assurance Maladie.Format : 9 caractères numériques généralement identiques au n°ADELI ou pseudo ADELI du professionnel pour sa première activité.</t>
   </si>
   <si>
     <t>SituationExercice.dateDebutActivite</t>
@@ -298,19 +298,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de début de l’activité correspondant à la date d’installation en cabinet ou à la date d’embauche du salarié, etc.</t>
+    <t>Date de début de l’activité correspondant à la date d’installation en cabinet ou à la date d’embauche du salarié, etc.</t>
   </si>
   <si>
     <t>SituationExercice.dateFinActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de fin de l’activité.</t>
+    <t>Date de fin de l’activité.</t>
   </si>
   <si>
     <t>SituationExercice.genreActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
+    <t>Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R22-GenreActivite?vs</t>
@@ -319,7 +319,7 @@
     <t>SituationExercice.motifFinActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
+    <t>Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R25-MotifFinActivite?vs</t>
@@ -328,7 +328,7 @@
     <t>SituationExercice.statutHospitalier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
+    <t>Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R32-StatutHospitalier?vs</t>
@@ -337,7 +337,7 @@
     <t>SituationExercice.sectionOrdrePharmacien</t>
   </si>
   <si>
-    <t xml:space="preserve"> Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
+    <t>Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R06-SectionTableauCNOP?vs</t>
@@ -346,7 +346,7 @@
     <t>SituationExercice.sousSectionOrdrePharmacien</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
+    <t>Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G05-SousSectionTableauCNOP?vs</t>
@@ -355,7 +355,7 @@
     <t>SituationExercice.typeActiviteLiberale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
+    <t>Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R24-TypeActiviteLiberale?vs</t>
@@ -364,7 +364,7 @@
     <t>SituationExercice.statutPSSSA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
+    <t>Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R34-StatutProfessionnelSSA?vs</t>
@@ -377,7 +377,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de télécommunication (numéro de téléphone, adresse email, URL, etc.) rattachée(s) à la situation d'exercice.</t>
+    <t>Adresse(s) de télécommunication (numéro de téléphone, adresse email, URL, etc.) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
     <t>SituationExercice.adresseSE</t>
@@ -387,7 +387,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) géopostale(s) rattachée(s) à la situation d'exercice.</t>
+    <t>Adresse(s) géopostale(s) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
     <t>SituationExercice.boiteLettresMSS</t>
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
+    <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -398,6 +398,16 @@
   </si>
   <si>
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
+  </si>
+  <si>
+    <t>SituationExercice.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
   </si>
 </sst>
 </file>
@@ -700,7 +710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -719,7 +729,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2536,6 +2546,106 @@
         <v>70</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
     <t>Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R23-ModeExercice/FHIR/TRE-R23-ModeExercice?vs</t>
   </si>
   <si>
     <t>SituationExercice.numeroAM</t>
@@ -313,7 +313,7 @@
     <t>Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R22-GenreActivite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R22-GenreActivite/FHIR/TRE-R22-GenreActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.motifFinActivite</t>
@@ -322,7 +322,7 @@
     <t>Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R25-MotifFinActivite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R25-MotifFinActivite/FHIR/TRE-R25-MotifFinActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutHospitalier</t>
@@ -331,7 +331,7 @@
     <t>Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R32-StatutHospitalier?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R32-StatutHospitalier/FHIR/TRE-R32-StatutHospitalier?vs</t>
   </si>
   <si>
     <t>SituationExercice.sectionOrdrePharmacien</t>
@@ -340,7 +340,7 @@
     <t>Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R06-SectionTableauCNOP?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R06-SectionTableauCNOP/FHIR/TRE-R06-SectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.sousSectionOrdrePharmacien</t>
@@ -349,7 +349,7 @@
     <t>Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G05-SousSectionTableauCNOP?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G05-SousSectionTableauCNOP/FHIR/TRE-G05-SousSectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.typeActiviteLiberale</t>
@@ -358,7 +358,7 @@
     <t>Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R24-TypeActiviteLiberale?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R24-TypeActiviteLiberale/FHIR/TRE-R24-TypeActiviteLiberale?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutPSSSA</t>
@@ -367,7 +367,7 @@
     <t>Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R34-StatutProfessionnelSSA?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R34-StatutProfessionnelSSA/FHIR/TRE-R34-StatutProfessionnelSSA?vs</t>
   </si>
   <si>
     <t>SituationExercice.telecommunication</t>
@@ -744,7 +744,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.68359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
   </si>
   <si>
     <t>Base</t>
@@ -641,39 +641,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -681,26 +683,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -758,112 +760,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -875,95 +877,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -975,23 +977,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -1005,26 +1007,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -1034,34 +1036,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1073,23 +1075,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1103,26 +1105,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1132,34 +1134,34 @@
         <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1171,23 +1173,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>78</v>
@@ -1201,26 +1203,26 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>80</v>
@@ -1230,34 +1232,34 @@
         <v>87</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1269,23 +1271,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1299,65 +1301,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1369,23 +1371,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>92</v>
@@ -1399,65 +1401,65 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1469,23 +1471,23 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>92</v>
@@ -1499,65 +1501,65 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1569,23 +1571,23 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>78</v>
@@ -1599,26 +1601,26 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
         <v>80</v>
@@ -1628,34 +1630,34 @@
         <v>98</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1667,23 +1669,23 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>78</v>
@@ -1697,26 +1699,26 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
         <v>80</v>
@@ -1726,34 +1728,34 @@
         <v>101</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1765,23 +1767,23 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>78</v>
@@ -1795,26 +1797,26 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
         <v>80</v>
@@ -1824,34 +1826,34 @@
         <v>104</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1863,23 +1865,23 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>78</v>
@@ -1893,26 +1895,26 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>80</v>
@@ -1922,34 +1924,34 @@
         <v>107</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1961,23 +1963,23 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>78</v>
@@ -1991,26 +1993,26 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>80</v>
@@ -2020,34 +2022,34 @@
         <v>110</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2059,23 +2061,23 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>78</v>
@@ -2089,26 +2091,26 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>80</v>
@@ -2118,34 +2120,34 @@
         <v>113</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>111</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -2157,23 +2159,23 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>78</v>
@@ -2187,26 +2189,26 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>80</v>
@@ -2216,34 +2218,34 @@
         <v>116</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -2255,23 +2257,23 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>118</v>
@@ -2285,65 +2287,65 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -2355,23 +2357,23 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>121</v>
@@ -2385,65 +2387,65 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -2455,23 +2457,23 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>124</v>
@@ -2485,65 +2487,65 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -2555,7 +2557,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -2565,13 +2567,13 @@
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>127</v>
@@ -2585,50 +2587,50 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>126</v>
@@ -2640,10 +2642,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationExercice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationExercice</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationExercice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/role-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/role-vs</t>
   </si>
   <si>
     <t>SituationExercice.typeRole</t>
@@ -269,7 +269,7 @@
     <t>Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeRole-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/typeRole-vs</t>
   </si>
   <si>
     <t>SituationExercice.modeExercice</t>
@@ -373,7 +373,7 @@
     <t>SituationExercice.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>SituationExercice.adresseSE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Adresse
 </t>
   </si>
   <si>
@@ -393,7 +393,7 @@
     <t>SituationExercice.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/BoiteLettreMSS
 </t>
   </si>
   <si>
@@ -403,7 +403,7 @@
     <t>SituationExercice.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -731,7 +731,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
